--- a/docs/Message protocol.xlsx
+++ b/docs/Message protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
     <t>End char:</t>
   </si>
   <si>
-    <t>0xFF</t>
-  </si>
-  <si>
-    <t>0x00</t>
-  </si>
-  <si>
-    <t>0x01</t>
-  </si>
-  <si>
     <t>DAQ</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Debug mes</t>
   </si>
   <si>
-    <t>0x02</t>
-  </si>
-  <si>
     <t>char 0-3</t>
   </si>
   <si>
@@ -126,12 +114,6 @@
     <t>PC-X32</t>
   </si>
   <si>
-    <t>0x80</t>
-  </si>
-  <si>
-    <t>0x81</t>
-  </si>
-  <si>
     <t>JS</t>
   </si>
   <si>
@@ -160,6 +142,24 @@
   </si>
   <si>
     <t>mode</t>
+  </si>
+  <si>
+    <t>Z'</t>
+  </si>
+  <si>
+    <t>a'</t>
+  </si>
+  <si>
+    <t>b'</t>
+  </si>
+  <si>
+    <t>c'</t>
+  </si>
+  <si>
+    <t>A'</t>
+  </si>
+  <si>
+    <t>B'</t>
   </si>
 </sst>
 </file>
@@ -266,14 +266,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -613,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -628,231 +630,231 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
